--- a/biology/Zoologie/Chlorophorus_varius/Chlorophorus_varius.xlsx
+++ b/biology/Zoologie/Chlorophorus_varius/Chlorophorus_varius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorophorus varius, le chlorophore soufré, est une espèce d'insectes coléoptères de la famille des Cerambycidae, sous-famille des Cerambycinae, de la tribu des Clytini et du genre Chlorophorus.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago mesure entre 8 et 14 mm de long. Le mâle a les antennes plus longues (milieu des élytres) que la femelle. Pubescence jaune-verdâtre plus rarement grise. Le pronotum est barré d'une bande noire pouvant parfois se limiter à trois points. Sur les élytres mats, une tache en forme de C de couleur noire. Les pattes et les antennes sont noires.
 			Accouplement - Fronton
@@ -543,10 +557,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
-Europe centrale et méridionale, Sibérie occidentale, Asie Mineure. En France l'espèce est plus fréquente dans le Midi qu'ailleurs[1].
+Europe centrale et méridionale, Sibérie occidentale, Asie Mineure. En France l'espèce est plus fréquente dans le Midi qu'ailleurs.
 Habitat
 On trouve l'adulte de juin à septembre sur les fleurs surtout d'Apiaceae (synonyme : ombellifères), au soleil, dans les prairies et aux abords des lisières des bois.</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves polyphages se développent en deux-trois ans dans le bois sec de divers feuillus, y compris les sarments de vigne.
 </t>
@@ -607,11 +625,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par le naturaliste danois Otto Friedrich Müller en 1766, sous le nom initial de Leptura varia [2]. 
-Synonymie
-Leptura varia O.F. Müller, 1766 Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par le naturaliste danois Otto Friedrich Müller en 1766, sous le nom initial de Leptura varia . 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlorophorus_varius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophorus_varius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Leptura varia O.F. Müller, 1766 Protonyme
 Chlorophorus  verbasci Linné, 1767
 Chlorophorus nigrofasciatus Goeze, 1777
 Chlorophorus ornatus Herbst, 1784
